--- a/Results/ANOVATables/SummaryAnalysis.xlsx
+++ b/Results/ANOVATables/SummaryAnalysis.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="28515" windowHeight="13995"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FpR2_Fety_bnGLMM" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="132">
   <si>
     <t>Env</t>
   </si>
@@ -380,12 +380,45 @@
   <si>
     <t xml:space="preserve"> 1 34567</t>
   </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>LR-CHI2</t>
+  </si>
+  <si>
+    <t>nbinom</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>B_Sp_young - A_Cm</t>
+  </si>
+  <si>
+    <t>C_Sp_int1 - A_Cm</t>
+  </si>
+  <si>
+    <t>D_Sp_int2 - A_Cm</t>
+  </si>
+  <si>
+    <t>E_Sp_old - A_Cm</t>
+  </si>
+  <si>
+    <t>A_Cm - avg(B_Sp_young,C_Sp_int1,D_Sp_int2,E_Sp_old)</t>
+  </si>
+  <si>
+    <t>crop_type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,7 +933,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -922,26 +955,37 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -978,7 +1022,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1052,7 +1096,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1087,7 +1130,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1263,14 +1305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CO28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH43" sqref="AH43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1329,7 +1371,7 @@
     <col min="92" max="93" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:93">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1888,7 +1930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2169,7 +2211,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:93">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2450,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:93">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2731,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:93">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3012,7 +3054,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:93">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3293,7 +3335,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:93">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3574,11 +3616,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:93">
       <c r="BV9" s="3"/>
       <c r="BW9" s="3"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:93">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -3856,7 +3898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:93">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4137,7 +4179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:93">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4418,7 +4460,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:93">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4699,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:93">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4980,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:93">
       <c r="A15">
         <v>5</v>
       </c>
@@ -5261,7 +5303,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:93">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5542,7 +5584,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:93">
       <c r="A17">
         <v>7</v>
       </c>
@@ -5823,11 +5865,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:93">
       <c r="BP18" s="2"/>
       <c r="BQ18" s="2"/>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:93">
       <c r="B19" t="s">
         <v>87</v>
       </c>
@@ -6105,7 +6147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:93">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6386,7 +6428,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:93">
       <c r="A21">
         <v>2</v>
       </c>
@@ -6667,7 +6709,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:93">
       <c r="A22">
         <v>3</v>
       </c>
@@ -6948,7 +6990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:93">
       <c r="A23">
         <v>4</v>
       </c>
@@ -7229,7 +7271,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:93">
       <c r="A24">
         <v>5</v>
       </c>
@@ -7510,7 +7552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:93">
       <c r="A25">
         <v>6</v>
       </c>
@@ -7791,7 +7833,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:93">
       <c r="A26">
         <v>7</v>
       </c>
@@ -8072,7 +8114,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:93">
       <c r="A27">
         <v>8</v>
       </c>
@@ -8353,7 +8395,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:93">
       <c r="A28">
         <v>9</v>
       </c>
@@ -8632,6 +8674,3161 @@
       </c>
       <c r="CO28" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:93">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>8</v>
+      </c>
+      <c r="R31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:93">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" t="s">
+        <v>11</v>
+      </c>
+      <c r="S32" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" t="s">
+        <v>121</v>
+      </c>
+      <c r="U32" t="s">
+        <v>12</v>
+      </c>
+      <c r="V32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W32" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>122</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>122</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:81">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>12.07</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F33">
+        <v>11.46</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H33">
+        <v>13.33</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J33">
+        <v>2.5</v>
+      </c>
+      <c r="K33">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="L33">
+        <v>1.63</v>
+      </c>
+      <c r="M33">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="N33">
+        <v>7.22</v>
+      </c>
+      <c r="O33">
+        <v>0.125</v>
+      </c>
+      <c r="P33">
+        <v>15.59</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R33">
+        <v>3.15</v>
+      </c>
+      <c r="S33">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="T33">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="U33">
+        <v>0.39</v>
+      </c>
+      <c r="V33">
+        <v>0.754</v>
+      </c>
+      <c r="W33">
+        <v>0.47</v>
+      </c>
+      <c r="X33">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Y33">
+        <v>0.12</v>
+      </c>
+      <c r="Z33">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="AA33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB33">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AC33">
+        <v>0.95</v>
+      </c>
+      <c r="AD33">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AE33">
+        <v>1.75</v>
+      </c>
+      <c r="AF33">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AG33">
+        <v>0.46</v>
+      </c>
+      <c r="AH33">
+        <v>7.8E-2</v>
+      </c>
+      <c r="AI33">
+        <v>2.69</v>
+      </c>
+      <c r="AJ33">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AK33">
+        <v>1.87</v>
+      </c>
+      <c r="AL33">
+        <v>0.312</v>
+      </c>
+      <c r="AM33">
+        <v>1.34</v>
+      </c>
+      <c r="AN33">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="AO33">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AP33">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AQ33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AR33">
+        <v>0.156</v>
+      </c>
+      <c r="AS33">
+        <v>1.99</v>
+      </c>
+      <c r="AT33">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AU33">
+        <v>2.27</v>
+      </c>
+      <c r="AV33">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AW33">
+        <v>2.57</v>
+      </c>
+      <c r="AX33">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AY33">
+        <v>1.87</v>
+      </c>
+      <c r="AZ33">
+        <v>1E-3</v>
+      </c>
+      <c r="BA33">
+        <v>8.77</v>
+      </c>
+      <c r="BB33">
+        <v>1.56</v>
+      </c>
+      <c r="BC33">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="BD33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE33">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="BF33">
+        <v>6.98</v>
+      </c>
+      <c r="BG33">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="BH33">
+        <v>5.35</v>
+      </c>
+      <c r="BI33">
+        <v>0.253</v>
+      </c>
+      <c r="BJ33">
+        <v>3.8</v>
+      </c>
+      <c r="BK33">
+        <v>0.433</v>
+      </c>
+      <c r="BL33">
+        <v>1.85</v>
+      </c>
+      <c r="BM33">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="BN33">
+        <v>24.17</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>27.99</v>
+      </c>
+      <c r="BR33">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="BS33" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="BT33">
+        <v>57.18</v>
+      </c>
+      <c r="BU33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV33">
+        <v>20.91</v>
+      </c>
+      <c r="BW33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX33">
+        <v>10.14</v>
+      </c>
+      <c r="BY33" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="BZ33">
+        <v>12.36</v>
+      </c>
+      <c r="CA33" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="CB33">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="CC33" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:81">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>0.12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>0.09</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34">
+        <v>0.24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34">
+        <v>0.02</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34">
+        <v>0.02</v>
+      </c>
+      <c r="N34" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34">
+        <v>0.12</v>
+      </c>
+      <c r="P34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34">
+        <v>0.1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34">
+        <v>0.04</v>
+      </c>
+      <c r="T34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U34">
+        <v>0.08</v>
+      </c>
+      <c r="V34" t="s">
+        <v>17</v>
+      </c>
+      <c r="W34">
+        <v>0.1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y34">
+        <v>0.03</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA34">
+        <v>0.11</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC34">
+        <v>0.18</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE34">
+        <v>0.3</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG34">
+        <v>0.1</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI34">
+        <v>0.39</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK34">
+        <v>0.31</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM34">
+        <v>0.25</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO34">
+        <v>0.21</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ34">
+        <v>0.06</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS34">
+        <v>0.32</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU34">
+        <v>0.35</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW34">
+        <v>0.38</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY34">
+        <v>0.31</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA34">
+        <v>0.69</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ34">
+        <v>0.17</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>17</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>17</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:81">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>0.12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>0.09</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>0.24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>0.02</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35">
+        <v>0.02</v>
+      </c>
+      <c r="N35" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35">
+        <v>0.12</v>
+      </c>
+      <c r="P35" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35">
+        <v>0.1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35">
+        <v>0.04</v>
+      </c>
+      <c r="T35" t="s">
+        <v>17</v>
+      </c>
+      <c r="U35">
+        <v>0.08</v>
+      </c>
+      <c r="V35" t="s">
+        <v>17</v>
+      </c>
+      <c r="W35">
+        <v>0.1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y35">
+        <v>0.03</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA35">
+        <v>0.11</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC35">
+        <v>0.18</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE35">
+        <v>0.3</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG35">
+        <v>0.1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI35">
+        <v>0.39</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK35">
+        <v>0.31</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM35">
+        <v>0.25</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO35">
+        <v>0.21</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ35">
+        <v>0.06</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS35">
+        <v>0.32</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU35">
+        <v>0.35</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW35">
+        <v>0.38</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY35">
+        <v>0.31</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA35">
+        <v>0.69</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ35">
+        <v>0.17</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>17</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>17</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:81">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" t="s">
+        <v>19</v>
+      </c>
+      <c r="T36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" t="s">
+        <v>19</v>
+      </c>
+      <c r="V36" t="s">
+        <v>19</v>
+      </c>
+      <c r="W36" t="s">
+        <v>19</v>
+      </c>
+      <c r="X36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>123</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>123</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:81">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S38" t="s">
+        <v>12</v>
+      </c>
+      <c r="T38" t="s">
+        <v>125</v>
+      </c>
+      <c r="U38" t="s">
+        <v>12</v>
+      </c>
+      <c r="V38" t="s">
+        <v>125</v>
+      </c>
+      <c r="W38" t="s">
+        <v>12</v>
+      </c>
+      <c r="X38" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:81">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F39">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H39">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J39">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K39">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L39">
+        <v>-0.01</v>
+      </c>
+      <c r="M39">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="N39">
+        <v>-0.1</v>
+      </c>
+      <c r="O39">
+        <v>0.435</v>
+      </c>
+      <c r="P39">
+        <v>-0.127</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="R39">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="S39">
+        <v>0.439</v>
+      </c>
+      <c r="T39">
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="U39">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="V39">
+        <v>-6.2839999999999998</v>
+      </c>
+      <c r="W39">
+        <v>0.59</v>
+      </c>
+      <c r="X39">
+        <v>-3.5270000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="Z39">
+        <v>-7.3079999999999998</v>
+      </c>
+      <c r="AA39">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AB39">
+        <v>-0.151</v>
+      </c>
+      <c r="AC39">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AD39">
+        <v>0.106</v>
+      </c>
+      <c r="AE39">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="AF39">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AG39">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AH39">
+        <v>-0.34100000000000003</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AJ39">
+        <v>-0.126</v>
+      </c>
+      <c r="AK39">
+        <v>0.251</v>
+      </c>
+      <c r="AL39">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AM39">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="AN39">
+        <v>-1.75</v>
+      </c>
+      <c r="AO39">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AP39">
+        <v>-0.47299999999999998</v>
+      </c>
+      <c r="AQ39">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="AR39">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="AS39">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>1</v>
+      </c>
+      <c r="AV39">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AW39">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="AX39">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="AY39">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AZ39">
+        <v>-2882.797</v>
+      </c>
+      <c r="BA39" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="BB39">
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="BC39">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="BD39">
+        <v>-7.3079999999999998</v>
+      </c>
+      <c r="BE39">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="BF39">
+        <v>0.106</v>
+      </c>
+      <c r="BG39">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="BH39">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BI39">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="BJ39">
+        <v>-0.151</v>
+      </c>
+      <c r="BK39">
+        <v>0.3</v>
+      </c>
+      <c r="BL39">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="BM39">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="BN39">
+        <v>-6.867</v>
+      </c>
+      <c r="BO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="BQ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR39">
+        <v>-391</v>
+      </c>
+      <c r="BS39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT39">
+        <v>-156</v>
+      </c>
+      <c r="BU39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV39">
+        <v>-597.47500000000002</v>
+      </c>
+      <c r="BW39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX39">
+        <v>-277.20800000000003</v>
+      </c>
+      <c r="BY39">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="BZ39">
+        <v>-61.417000000000002</v>
+      </c>
+      <c r="CA39" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="CB39">
+        <v>-154.15</v>
+      </c>
+      <c r="CC39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:81">
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" t="s">
+        <v>125</v>
+      </c>
+      <c r="O41" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>12</v>
+      </c>
+      <c r="R41" t="s">
+        <v>125</v>
+      </c>
+      <c r="S41" t="s">
+        <v>12</v>
+      </c>
+      <c r="T41" t="s">
+        <v>125</v>
+      </c>
+      <c r="U41" t="s">
+        <v>12</v>
+      </c>
+      <c r="V41" t="s">
+        <v>125</v>
+      </c>
+      <c r="W41" t="s">
+        <v>12</v>
+      </c>
+      <c r="X41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:81">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E42">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F42">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="G42">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H42">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J42">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="K42">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="L42">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M42">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N42">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O42">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="P42">
+        <v>0.183</v>
+      </c>
+      <c r="Q42">
+        <v>0.154</v>
+      </c>
+      <c r="R42">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>-9.94</v>
+      </c>
+      <c r="U42">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="V42">
+        <v>12.994999999999999</v>
+      </c>
+      <c r="W42">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="X42">
+        <v>6.8179999999999996</v>
+      </c>
+      <c r="Y42">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="Z42">
+        <v>-2.3069999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AB42">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AC42">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AD42">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AE42">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AF42">
+        <v>0.25</v>
+      </c>
+      <c r="AG42">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="AH42">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="AI42">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AJ42">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AK42">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AL42">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AM42">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AN42">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="AO42">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AP42">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="AQ42">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="AR42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS42">
+        <v>0.999</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>1</v>
+      </c>
+      <c r="AV42">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="AW42">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AX42">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="AY42">
+        <v>0.999</v>
+      </c>
+      <c r="AZ42">
+        <v>417.32900000000001</v>
+      </c>
+      <c r="BA42">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="BB42">
+        <v>-9.94</v>
+      </c>
+      <c r="BC42">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="BD42">
+        <v>-2.3069999999999999</v>
+      </c>
+      <c r="BE42">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="BF42">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="BG42">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BH42">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="BI42">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="BJ42">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="BK42">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="BL42">
+        <v>0.25</v>
+      </c>
+      <c r="BM42">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="BN42">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="BO42">
+        <v>0.114</v>
+      </c>
+      <c r="BP42">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="BQ42" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BR42">
+        <v>81.667000000000002</v>
+      </c>
+      <c r="BS42">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="BT42">
+        <v>22.667000000000002</v>
+      </c>
+      <c r="BU42" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BV42">
+        <v>216.6</v>
+      </c>
+      <c r="BW42" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BX42">
+        <v>-180.833</v>
+      </c>
+      <c r="BY42">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="BZ42">
+        <v>10.667</v>
+      </c>
+      <c r="CA42">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="CB42">
+        <v>95.4</v>
+      </c>
+      <c r="CC42">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:81">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H43">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J43">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="K43">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="L43">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="O43">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="P43">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="R43">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="S43">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="T43">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>-7.9020000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="X43">
+        <v>4.2220000000000004</v>
+      </c>
+      <c r="Y43">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Z43">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AB43">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="AC43">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AD43">
+        <v>-1.238</v>
+      </c>
+      <c r="AE43">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="AF43">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="AG43">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="AH43">
+        <v>0.08</v>
+      </c>
+      <c r="AI43">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="AJ43">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="AK43">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="AL43">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="AM43">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AP43">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="AQ43">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AR43">
+        <v>0.215</v>
+      </c>
+      <c r="AS43">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AT43">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AU43">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AV43">
+        <v>0.05</v>
+      </c>
+      <c r="AW43">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="AX43">
+        <v>1.425</v>
+      </c>
+      <c r="AY43">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="AZ43">
+        <v>4508.4459999999999</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="BB43">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="BC43">
+        <v>1</v>
+      </c>
+      <c r="BD43">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="BE43">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="BF43">
+        <v>-1.238</v>
+      </c>
+      <c r="BG43">
+        <v>0.4</v>
+      </c>
+      <c r="BH43">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="BI43">
+        <v>0.372</v>
+      </c>
+      <c r="BJ43">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="BK43">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="BL43">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="BM43">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="BN43">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="BO43" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="BQ43" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BR43">
+        <v>560.66700000000003</v>
+      </c>
+      <c r="BS43" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="BT43">
+        <v>228</v>
+      </c>
+      <c r="BU43" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV43">
+        <v>307.267</v>
+      </c>
+      <c r="BW43" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="BX43">
+        <v>844.33299999999997</v>
+      </c>
+      <c r="BY43">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="BZ43">
+        <v>85.667000000000002</v>
+      </c>
+      <c r="CA43" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="CB43">
+        <v>267.733</v>
+      </c>
+      <c r="CC43" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:81">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F44">
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H44">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J44">
+        <v>1E-3</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M44">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="N44">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Q44">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="R44">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="S44">
+        <v>0.433</v>
+      </c>
+      <c r="T44">
+        <v>-6.1230000000000002</v>
+      </c>
+      <c r="U44">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="V44">
+        <v>9.9280000000000008</v>
+      </c>
+      <c r="W44">
+        <v>0.89</v>
+      </c>
+      <c r="X44">
+        <v>4.2480000000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Z44">
+        <v>6.4729999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AB44">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AC44">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="AD44">
+        <v>-0.377</v>
+      </c>
+      <c r="AE44">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="AF44">
+        <v>0.08</v>
+      </c>
+      <c r="AG44">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="AH44">
+        <v>0.433</v>
+      </c>
+      <c r="AI44">
+        <v>0.124</v>
+      </c>
+      <c r="AJ44">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AK44">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AL44">
+        <v>-0.27200000000000002</v>
+      </c>
+      <c r="AM44">
+        <v>0.83</v>
+      </c>
+      <c r="AN44">
+        <v>1.167</v>
+      </c>
+      <c r="AO44">
+        <v>0.74</v>
+      </c>
+      <c r="AP44">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="AQ44">
+        <v>0.876</v>
+      </c>
+      <c r="AR44">
+        <v>0.122</v>
+      </c>
+      <c r="AS44">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="AT44">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="AU44">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="AV44">
+        <v>0.02</v>
+      </c>
+      <c r="AW44">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="AX44">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AY44">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AZ44">
+        <v>3551.779</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BB44">
+        <v>-6.1230000000000002</v>
+      </c>
+      <c r="BC44">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="BD44">
+        <v>6.4729999999999999</v>
+      </c>
+      <c r="BE44">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="BF44">
+        <v>-0.377</v>
+      </c>
+      <c r="BG44">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="BH44">
+        <v>-0.27200000000000002</v>
+      </c>
+      <c r="BI44">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="BJ44">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="BK44">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="BL44">
+        <v>0.08</v>
+      </c>
+      <c r="BM44">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="BN44">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BO44" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="BQ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR44">
+        <v>671</v>
+      </c>
+      <c r="BS44" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BT44">
+        <v>221.333</v>
+      </c>
+      <c r="BU44" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV44">
+        <v>449.93299999999999</v>
+      </c>
+      <c r="BW44" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX44">
+        <v>361.83300000000003</v>
+      </c>
+      <c r="BY44">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="BZ44">
+        <v>102.667</v>
+      </c>
+      <c r="CA44" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="CB44">
+        <v>220.4</v>
+      </c>
+      <c r="CC44" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:81">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F45">
+        <v>-0.317</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H45">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I45">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="J45">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="K45">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="L45">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="N45">
+        <v>0.39</v>
+      </c>
+      <c r="O45" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="P45">
+        <v>0.317</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="R45">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="S45">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="T45">
+        <v>-6.4370000000000003</v>
+      </c>
+      <c r="U45">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="V45">
+        <v>10.115</v>
+      </c>
+      <c r="W45">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="X45">
+        <v>-1.1779999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0.999</v>
+      </c>
+      <c r="Z45">
+        <v>15.016999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="AB45">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AC45">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AD45">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="AE45">
+        <v>0.746</v>
+      </c>
+      <c r="AF45">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AG45">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AH45">
+        <v>0.503</v>
+      </c>
+      <c r="AI45">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AJ45">
+        <v>0.312</v>
+      </c>
+      <c r="AK45">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AL45">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AM45">
+        <v>0.94</v>
+      </c>
+      <c r="AN45">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="AO45">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AP45">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>-0.28199999999999997</v>
+      </c>
+      <c r="AS45">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AT45">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="AU45">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AV45">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="AW45">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AX45">
+        <v>-1.748</v>
+      </c>
+      <c r="AY45">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="AZ45">
+        <v>3053.6329999999998</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BB45">
+        <v>-6.4370000000000003</v>
+      </c>
+      <c r="BC45">
+        <v>0.88</v>
+      </c>
+      <c r="BD45">
+        <v>15.016999999999999</v>
+      </c>
+      <c r="BE45">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="BF45">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="BG45">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="BH45">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="BI45">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="BJ45">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="BK45">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="BL45">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="BM45">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="BN45">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="BO45" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="BP45">
+        <v>0.248</v>
+      </c>
+      <c r="BQ45" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR45">
+        <v>250.667</v>
+      </c>
+      <c r="BS45">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="BT45">
+        <v>152</v>
+      </c>
+      <c r="BU45" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV45">
+        <v>1416.1</v>
+      </c>
+      <c r="BW45" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX45">
+        <v>83.5</v>
+      </c>
+      <c r="BY45">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="BZ45">
+        <v>46.667000000000002</v>
+      </c>
+      <c r="CA45">
+        <v>0.114</v>
+      </c>
+      <c r="CB45">
+        <v>33.067</v>
+      </c>
+      <c r="CC45">
+        <v>0.54100000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -8641,14 +11838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:X100"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -8661,15 +11858,29 @@
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="11"/>
+    <col min="22" max="22" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="G3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H3" s="4"/>
+      <c r="S3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="14"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="4" customFormat="1">
       <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
@@ -8697,8 +11908,32 @@
       <c r="L4" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -8720,8 +11955,20 @@
       <c r="G5" t="s">
         <v>60</v>
       </c>
+      <c r="O5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -8740,8 +11987,20 @@
       <c r="F6" t="s">
         <v>53</v>
       </c>
+      <c r="O6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -8769,8 +12028,20 @@
       <c r="L7">
         <v>2</v>
       </c>
+      <c r="O7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -8789,8 +12060,20 @@
       <c r="F8" t="s">
         <v>53</v>
       </c>
+      <c r="O8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -8815,8 +12098,20 @@
       <c r="K9">
         <v>2</v>
       </c>
+      <c r="O9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -8835,8 +12130,20 @@
       <c r="F10" t="s">
         <v>53</v>
       </c>
+      <c r="O10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8858,8 +12165,20 @@
       <c r="G11" t="s">
         <v>63</v>
       </c>
+      <c r="O11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -8878,8 +12197,20 @@
       <c r="F12" t="s">
         <v>53</v>
       </c>
+      <c r="O12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -8901,8 +12232,20 @@
       <c r="G13" t="s">
         <v>60</v>
       </c>
+      <c r="O13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -8921,8 +12264,20 @@
       <c r="F14" t="s">
         <v>53</v>
       </c>
+      <c r="O14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -8953,8 +12308,20 @@
       <c r="L15">
         <v>2</v>
       </c>
+      <c r="O15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -8973,8 +12340,20 @@
       <c r="F16" t="s">
         <v>53</v>
       </c>
+      <c r="O16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -9002,8 +12381,20 @@
       <c r="L17">
         <v>2</v>
       </c>
+      <c r="O17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -9022,8 +12413,20 @@
       <c r="F18" t="s">
         <v>53</v>
       </c>
+      <c r="O18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -9045,8 +12448,20 @@
       <c r="G19" t="s">
         <v>65</v>
       </c>
+      <c r="O19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -9065,8 +12480,20 @@
       <c r="F20" t="s">
         <v>53</v>
       </c>
+      <c r="O20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -9091,8 +12518,20 @@
       <c r="L21">
         <v>2</v>
       </c>
+      <c r="O21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -9111,8 +12550,20 @@
       <c r="F22" t="s">
         <v>53</v>
       </c>
+      <c r="O22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -9134,8 +12585,20 @@
       <c r="G23" t="s">
         <v>77</v>
       </c>
+      <c r="O23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -9154,8 +12617,20 @@
       <c r="F24" t="s">
         <v>53</v>
       </c>
+      <c r="O24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -9177,8 +12652,20 @@
       <c r="G25" t="s">
         <v>61</v>
       </c>
+      <c r="O25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -9197,8 +12684,20 @@
       <c r="F26" t="s">
         <v>53</v>
       </c>
+      <c r="O26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24">
       <c r="A27" s="12" t="s">
         <v>23</v>
       </c>
@@ -9225,8 +12724,26 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
+      <c r="O27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24">
       <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
@@ -9251,8 +12768,26 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
+      <c r="O28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -9283,8 +12818,26 @@
       <c r="L29" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="O29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24">
       <c r="A30" s="12" t="s">
         <v>24</v>
       </c>
@@ -9309,8 +12862,26 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
+      <c r="O30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24">
       <c r="A31" s="12" t="s">
         <v>25</v>
       </c>
@@ -9341,8 +12912,26 @@
       <c r="L31" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="O31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24">
       <c r="A32" s="12" t="s">
         <v>25</v>
       </c>
@@ -9367,8 +12956,26 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
+      <c r="O32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24">
       <c r="A33" s="12" t="s">
         <v>26</v>
       </c>
@@ -9395,8 +13002,26 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
+      <c r="O33" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24">
       <c r="A34" s="12" t="s">
         <v>26</v>
       </c>
@@ -9421,8 +13046,26 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
+      <c r="O34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -9453,8 +13096,20 @@
       <c r="L35" t="s">
         <v>66</v>
       </c>
+      <c r="O35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24">
       <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
@@ -9473,8 +13128,20 @@
       <c r="F36" t="s">
         <v>53</v>
       </c>
+      <c r="O36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24">
       <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
@@ -9496,8 +13163,20 @@
       <c r="G37" t="s">
         <v>74</v>
       </c>
+      <c r="O37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -9516,8 +13195,20 @@
       <c r="F38" t="s">
         <v>53</v>
       </c>
+      <c r="O38" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24">
       <c r="A39" s="12" t="s">
         <v>29</v>
       </c>
@@ -9548,8 +13239,26 @@
       <c r="L39" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="O39" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R39" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24">
       <c r="A40" s="12" t="s">
         <v>29</v>
       </c>
@@ -9574,8 +13283,26 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
+      <c r="O40" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R40" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24">
       <c r="A41" s="4" t="s">
         <v>30</v>
       </c>
@@ -9600,8 +13327,20 @@
       <c r="K41">
         <v>2</v>
       </c>
+      <c r="O41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -9620,8 +13359,20 @@
       <c r="F42" t="s">
         <v>53</v>
       </c>
+      <c r="O42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
@@ -9646,8 +13397,20 @@
       <c r="K43">
         <v>2</v>
       </c>
+      <c r="O43" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24">
       <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
@@ -9666,8 +13429,20 @@
       <c r="F44" t="s">
         <v>53</v>
       </c>
+      <c r="O44" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24">
       <c r="A45" s="4" t="s">
         <v>32</v>
       </c>
@@ -9689,8 +13464,20 @@
       <c r="G45" t="s">
         <v>72</v>
       </c>
+      <c r="O45" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24">
       <c r="A46" s="4" t="s">
         <v>32</v>
       </c>
@@ -9709,8 +13496,20 @@
       <c r="F46" t="s">
         <v>53</v>
       </c>
+      <c r="O46" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24">
       <c r="A47" s="4" t="s">
         <v>33</v>
       </c>
@@ -9732,8 +13531,20 @@
       <c r="G47" t="s">
         <v>71</v>
       </c>
+      <c r="O47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24">
       <c r="A48" s="4" t="s">
         <v>33</v>
       </c>
@@ -9752,8 +13563,20 @@
       <c r="F48" t="s">
         <v>53</v>
       </c>
+      <c r="O48" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49" s="4" t="s">
         <v>34</v>
       </c>
@@ -9775,8 +13598,20 @@
       <c r="G49" t="s">
         <v>61</v>
       </c>
+      <c r="O49" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50" s="4" t="s">
         <v>34</v>
       </c>
@@ -9795,8 +13630,20 @@
       <c r="F50" t="s">
         <v>53</v>
       </c>
+      <c r="O50" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18">
       <c r="A51" s="4" t="s">
         <v>35</v>
       </c>
@@ -9818,8 +13665,20 @@
       <c r="G51" t="s">
         <v>61</v>
       </c>
+      <c r="O51" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18">
       <c r="A52" s="4" t="s">
         <v>35</v>
       </c>
@@ -9838,8 +13697,20 @@
       <c r="F52" t="s">
         <v>53</v>
       </c>
+      <c r="O52" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18">
       <c r="A53" s="4" t="s">
         <v>36</v>
       </c>
@@ -9864,8 +13735,20 @@
       <c r="J53" t="s">
         <v>66</v>
       </c>
+      <c r="O53" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R53" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18">
       <c r="A54" s="4" t="s">
         <v>36</v>
       </c>
@@ -9884,8 +13767,20 @@
       <c r="F54" t="s">
         <v>53</v>
       </c>
+      <c r="O54" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
@@ -9913,8 +13808,20 @@
       <c r="L55">
         <v>2</v>
       </c>
+      <c r="O55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R55" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18">
       <c r="A56" s="4" t="s">
         <v>20</v>
       </c>
@@ -9933,8 +13840,20 @@
       <c r="F56" t="s">
         <v>68</v>
       </c>
+      <c r="O56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18">
       <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
@@ -9959,8 +13878,20 @@
       <c r="J57">
         <v>2</v>
       </c>
+      <c r="O57" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18">
       <c r="A58" s="4" t="s">
         <v>23</v>
       </c>
@@ -9979,8 +13910,20 @@
       <c r="F58" t="s">
         <v>68</v>
       </c>
+      <c r="O58" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18">
       <c r="A59" s="4" t="s">
         <v>25</v>
       </c>
@@ -10011,8 +13954,20 @@
       <c r="L59">
         <v>2</v>
       </c>
+      <c r="O59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q59" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R59" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18">
       <c r="A60" s="4" t="s">
         <v>25</v>
       </c>
@@ -10031,8 +13986,20 @@
       <c r="F60" t="s">
         <v>68</v>
       </c>
+      <c r="O60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q60" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18">
       <c r="A61" s="4" t="s">
         <v>29</v>
       </c>
@@ -10063,8 +14030,20 @@
       <c r="L61">
         <v>2</v>
       </c>
+      <c r="O61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R61" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18">
       <c r="A62" s="4" t="s">
         <v>29</v>
       </c>
@@ -10083,8 +14062,20 @@
       <c r="F62" t="s">
         <v>68</v>
       </c>
+      <c r="O62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q62" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R62" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
@@ -10112,8 +14103,20 @@
       <c r="L63">
         <v>2</v>
       </c>
+      <c r="O63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q63" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R63" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18">
       <c r="A64" s="4" t="s">
         <v>24</v>
       </c>
@@ -10132,8 +14135,20 @@
       <c r="F64" t="s">
         <v>68</v>
       </c>
+      <c r="O64" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24">
       <c r="A65" s="4" t="s">
         <v>26</v>
       </c>
@@ -10164,8 +14179,26 @@
       <c r="L65" s="5">
         <v>2</v>
       </c>
+      <c r="O65" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q65" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R65" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24">
       <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
@@ -10190,8 +14223,26 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
+      <c r="O66" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q66" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R66" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24">
       <c r="A67" s="12" t="s">
         <v>36</v>
       </c>
@@ -10220,8 +14271,26 @@
         <v>2</v>
       </c>
       <c r="L67" s="7"/>
+      <c r="O67" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q67" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R67" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24">
       <c r="A68" s="12" t="s">
         <v>36</v>
       </c>
@@ -10246,8 +14315,26 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
+      <c r="O68" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P68" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q68" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R68" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24">
       <c r="A69" s="4" t="s">
         <v>57</v>
       </c>
@@ -10272,8 +14359,20 @@
       <c r="K69">
         <v>2</v>
       </c>
+      <c r="O69" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24">
       <c r="A70" s="4" t="s">
         <v>57</v>
       </c>
@@ -10292,8 +14391,20 @@
       <c r="F70" t="s">
         <v>53</v>
       </c>
+      <c r="O70" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24">
       <c r="A71" s="4" t="s">
         <v>6</v>
       </c>
@@ -10318,8 +14429,20 @@
       <c r="H71" t="s">
         <v>68</v>
       </c>
+      <c r="O71" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24">
       <c r="A72" s="4" t="s">
         <v>6</v>
       </c>
@@ -10338,8 +14461,20 @@
       <c r="F72" t="s">
         <v>68</v>
       </c>
+      <c r="O72" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24">
       <c r="A73" s="4" t="s">
         <v>39</v>
       </c>
@@ -10370,8 +14505,20 @@
       <c r="L73" t="s">
         <v>81</v>
       </c>
+      <c r="O73" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24">
       <c r="A74" s="4" t="s">
         <v>39</v>
       </c>
@@ -10390,8 +14537,20 @@
       <c r="F74" t="s">
         <v>68</v>
       </c>
+      <c r="O74" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q74" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24">
       <c r="A75" s="12" t="s">
         <v>40</v>
       </c>
@@ -10422,8 +14581,26 @@
       <c r="L75" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="O75" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P75" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q75" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R75" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24">
       <c r="A76" s="12" t="s">
         <v>40</v>
       </c>
@@ -10444,8 +14621,26 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
+      <c r="O76" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P76" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q76" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R76" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+      <c r="W76" s="18"/>
+      <c r="X76" s="18"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24">
       <c r="A77" s="4" t="s">
         <v>41</v>
       </c>
@@ -10476,8 +14671,20 @@
       <c r="L77" t="s">
         <v>66</v>
       </c>
+      <c r="O77" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P77" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q77" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R77" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24">
       <c r="A78" s="4" t="s">
         <v>41</v>
       </c>
@@ -10496,8 +14703,20 @@
       <c r="F78" t="s">
         <v>68</v>
       </c>
+      <c r="O78" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q78" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24">
       <c r="A79" s="12" t="s">
         <v>42</v>
       </c>
@@ -10532,8 +14751,26 @@
       <c r="L79" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="O79" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P79" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R79" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24">
       <c r="A80" s="12" t="s">
         <v>42</v>
       </c>
@@ -10558,8 +14795,26 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
+      <c r="O80" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P80" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q80" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R80" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18">
       <c r="A81" s="4" t="s">
         <v>43</v>
       </c>
@@ -10587,8 +14842,20 @@
       <c r="K81" t="s">
         <v>66</v>
       </c>
+      <c r="O81" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q81" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R81" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18">
       <c r="A82" s="4" t="s">
         <v>43</v>
       </c>
@@ -10607,8 +14874,20 @@
       <c r="F82" t="s">
         <v>68</v>
       </c>
+      <c r="O82" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q82" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R82" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18">
       <c r="A83" s="13" t="s">
         <v>6</v>
       </c>
@@ -10641,8 +14920,20 @@
       <c r="L83" s="10">
         <v>2</v>
       </c>
+      <c r="O83" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q83" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R83" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18">
       <c r="A84" s="13" t="s">
         <v>6</v>
       </c>
@@ -10667,8 +14958,20 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
+      <c r="O84" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q84" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R84" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18">
       <c r="A85" s="13" t="s">
         <v>39</v>
       </c>
@@ -10703,8 +15006,20 @@
       <c r="L85" s="10">
         <v>2</v>
       </c>
+      <c r="O85" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P85" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q85" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R85" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18">
       <c r="A86" s="13" t="s">
         <v>39</v>
       </c>
@@ -10729,8 +15044,20 @@
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
+      <c r="O86" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P86" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q86" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R86" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18">
       <c r="A87" s="14" t="s">
         <v>40</v>
       </c>
@@ -10765,8 +15092,20 @@
       <c r="L87" s="11">
         <v>2</v>
       </c>
+      <c r="O87" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q87" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R87" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18">
       <c r="A88" s="14" t="s">
         <v>40</v>
       </c>
@@ -10791,8 +15130,20 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
+      <c r="O88" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P88" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q88" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R88" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18">
       <c r="A89" s="13" t="s">
         <v>41</v>
       </c>
@@ -10825,8 +15176,20 @@
       <c r="L89" s="10">
         <v>2</v>
       </c>
+      <c r="O89" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P89" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q89" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R89" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18">
       <c r="A90" s="13" t="s">
         <v>41</v>
       </c>
@@ -10851,8 +15214,20 @@
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
+      <c r="O90" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P90" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q90" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R90" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18">
       <c r="A91" s="4" t="s">
         <v>42</v>
       </c>
@@ -10886,8 +15261,20 @@
       <c r="L91">
         <v>2</v>
       </c>
+      <c r="O91" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P91" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q91" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R91" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18">
       <c r="A92" s="4" t="s">
         <v>42</v>
       </c>
@@ -10906,8 +15293,20 @@
       <c r="F92" t="s">
         <v>53</v>
       </c>
+      <c r="O92" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P92" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q92" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R92" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18">
       <c r="A93" s="13" t="s">
         <v>43</v>
       </c>
@@ -10940,8 +15339,20 @@
       <c r="L93" s="10">
         <v>2</v>
       </c>
+      <c r="O93" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P93" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q93" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R93" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18">
       <c r="A94" s="13" t="s">
         <v>43</v>
       </c>
@@ -10966,8 +15377,20 @@
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
+      <c r="O94" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q94" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R94" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="98" spans="1:8" ht="35.25" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:20" ht="35.25">
       <c r="A98" s="15" t="s">
         <v>85</v>
       </c>
@@ -10978,8 +15401,14 @@
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
     </row>
-    <row r="100" spans="1:8" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:20" ht="45.75">
       <c r="A100" s="16" t="s">
         <v>86</v>
       </c>
@@ -10989,27 +15418,34 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A98:H98"/>
     <mergeCell ref="A100:G100"/>
+    <mergeCell ref="O98:T98"/>
+    <mergeCell ref="O100:S100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11215,7 +15651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11418,7 +15854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11627,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11836,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12045,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69">
       <c r="A7">
         <v>7</v>
       </c>

--- a/Results/ANOVATables/SummaryAnalysis.xlsx
+++ b/Results/ANOVATables/SummaryAnalysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="FpR2_Fety_bnGLMM" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="144">
   <si>
     <t>Env</t>
   </si>
@@ -413,12 +413,48 @@
   <si>
     <t>crop_type</t>
   </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>increasing</t>
+  </si>
+  <si>
+    <t>two strata</t>
+  </si>
+  <si>
+    <t>misbehaved</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>Post-Hoc</t>
+  </si>
+  <si>
+    <t>trt vs. Ctrl</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Chisq und p-Werte vertauscht,</t>
+  </si>
+  <si>
+    <t>Modell mit var Ident() vergleichen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +611,25 @@
     <font>
       <b/>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -773,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -888,6 +943,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -933,7 +1083,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -949,43 +1099,57 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1022,7 +1186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1096,6 +1260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1130,6 +1295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1305,14 +1471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CO50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH43" sqref="AH43"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD52" sqref="AD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1371,7 +1537,7 @@
     <col min="92" max="93" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1930,7 +2096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2211,7 +2377,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2492,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2773,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:93">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3054,7 +3220,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3335,7 +3501,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3616,11 +3782,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.3">
       <c r="BV9" s="3"/>
       <c r="BW9" s="3"/>
     </row>
-    <row r="10" spans="1:93">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -3898,7 +4064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:93">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4179,7 +4345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:93">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4460,7 +4626,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="13" spans="1:93">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4741,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:93">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -5022,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:93">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -5303,7 +5469,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="16" spans="1:93">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5584,7 +5750,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:93">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -5865,11 +6031,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:93">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.3">
       <c r="BP18" s="2"/>
       <c r="BQ18" s="2"/>
     </row>
-    <row r="19" spans="1:93">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>87</v>
       </c>
@@ -6147,7 +6313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:93">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6428,7 +6594,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:93">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -6709,7 +6875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:93">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -6990,7 +7156,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:93">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -7271,7 +7437,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:93">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -7552,7 +7718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:93">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -7833,7 +7999,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="26" spans="1:93">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -8114,7 +8280,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:93">
+    <row r="27" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -8395,7 +8561,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:93">
+    <row r="28" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -8676,7 +8842,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:93">
+    <row r="31" spans="1:93" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -8731,106 +8897,106 @@
       <c r="S31" t="s">
         <v>9</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V31" t="s">
+      <c r="V31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X31" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y31" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Z31" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AA31" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AB31" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AC31" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AD31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AE31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AF31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AG31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AH31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AI31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AJ31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AK31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AL31" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AM31" t="s">
+      <c r="AM31" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AN31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AO31" t="s">
+      <c r="AO31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AP31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AQ31" t="s">
+      <c r="AQ31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AR31" t="s">
+      <c r="AR31" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AS31" t="s">
+      <c r="AS31" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AT31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AU31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AV31" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AW31" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AX31" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="AY31" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="AZ31" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BA31" s="28" t="s">
         <v>36</v>
       </c>
       <c r="BB31" t="s">
@@ -8918,7 +9084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:93">
+    <row r="32" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -8976,106 +9142,106 @@
       <c r="S32" t="s">
         <v>12</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T32" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="U32" t="s">
-        <v>12</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="U32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="V32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="W32" t="s">
-        <v>12</v>
-      </c>
-      <c r="X32" t="s">
+      <c r="W32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="Y32" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="Y32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AA32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="AA32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AC32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD32" t="s">
+      <c r="AC32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AE32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF32" t="s">
+      <c r="AE32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AG32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="AG32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AI32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ32" t="s">
+      <c r="AI32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AK32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="AK32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AM32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN32" t="s">
+      <c r="AM32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AO32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP32" t="s">
+      <c r="AO32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AQ32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR32" t="s">
+      <c r="AQ32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AS32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT32" t="s">
+      <c r="AS32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AU32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV32" t="s">
+      <c r="AU32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AW32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX32" t="s">
+      <c r="AW32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AY32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AZ32" t="s">
+      <c r="AY32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ32" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BA32" s="31" t="s">
         <v>12</v>
       </c>
       <c r="BB32" t="s">
@@ -9163,7 +9329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:81">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -9221,106 +9387,106 @@
       <c r="S33">
         <v>0.53300000000000003</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="29">
         <v>0.81200000000000006</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="30">
         <v>0.39</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="30">
         <v>0.754</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="30">
         <v>0.47</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="30">
         <v>0.97199999999999998</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="30">
         <v>0.12</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="30">
         <v>0.70199999999999996</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AB33">
+      <c r="AB33" s="30">
         <v>0.46600000000000003</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" s="30">
         <v>0.95</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="30">
         <v>0.20499999999999999</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="30">
         <v>1.75</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="30">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="30">
         <v>0.46</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" s="30">
         <v>7.8E-2</v>
       </c>
-      <c r="AI33">
+      <c r="AI33" s="30">
         <v>2.69</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ33" s="30">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AK33">
+      <c r="AK33" s="30">
         <v>1.87</v>
       </c>
-      <c r="AL33">
+      <c r="AL33" s="30">
         <v>0.312</v>
       </c>
-      <c r="AM33">
+      <c r="AM33" s="30">
         <v>1.34</v>
       </c>
-      <c r="AN33">
+      <c r="AN33" s="30">
         <v>0.38300000000000001</v>
       </c>
-      <c r="AO33">
+      <c r="AO33" s="30">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AP33">
+      <c r="AP33" s="30">
         <v>0.88800000000000001</v>
       </c>
-      <c r="AQ33">
+      <c r="AQ33" s="30">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AR33">
+      <c r="AR33" s="30">
         <v>0.156</v>
       </c>
-      <c r="AS33">
+      <c r="AS33" s="30">
         <v>1.99</v>
       </c>
-      <c r="AT33">
+      <c r="AT33" s="30">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AU33">
+      <c r="AU33" s="30">
         <v>2.27</v>
       </c>
-      <c r="AV33">
+      <c r="AV33" s="30">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="AW33">
+      <c r="AW33" s="30">
         <v>2.57</v>
       </c>
-      <c r="AX33">
+      <c r="AX33" s="30">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AY33">
+      <c r="AY33" s="30">
         <v>1.87</v>
       </c>
-      <c r="AZ33">
+      <c r="AZ33" s="32">
         <v>1E-3</v>
       </c>
-      <c r="BA33">
+      <c r="BA33" s="31">
         <v>8.77</v>
       </c>
       <c r="BB33">
@@ -9408,7 +9574,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:81">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -9466,106 +9632,106 @@
       <c r="S34">
         <v>0.04</v>
       </c>
-      <c r="T34" t="s">
-        <v>17</v>
-      </c>
-      <c r="U34">
+      <c r="T34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U34" s="30">
         <v>0.08</v>
       </c>
-      <c r="V34" t="s">
-        <v>17</v>
-      </c>
-      <c r="W34">
+      <c r="V34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="W34" s="30">
         <v>0.1</v>
       </c>
-      <c r="X34" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y34">
+      <c r="X34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y34" s="30">
         <v>0.03</v>
       </c>
-      <c r="Z34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA34">
+      <c r="Z34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA34" s="30">
         <v>0.11</v>
       </c>
-      <c r="AB34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC34">
+      <c r="AB34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC34" s="30">
         <v>0.18</v>
       </c>
-      <c r="AD34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE34">
+      <c r="AD34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE34" s="30">
         <v>0.3</v>
       </c>
-      <c r="AF34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG34">
+      <c r="AF34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG34" s="30">
         <v>0.1</v>
       </c>
-      <c r="AH34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI34">
+      <c r="AH34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI34" s="30">
         <v>0.39</v>
       </c>
-      <c r="AJ34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK34">
+      <c r="AJ34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK34" s="30">
         <v>0.31</v>
       </c>
-      <c r="AL34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM34">
+      <c r="AL34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM34" s="30">
         <v>0.25</v>
       </c>
-      <c r="AN34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO34">
+      <c r="AN34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO34" s="30">
         <v>0.21</v>
       </c>
-      <c r="AP34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ34">
+      <c r="AP34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ34" s="30">
         <v>0.06</v>
       </c>
-      <c r="AR34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS34">
+      <c r="AR34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS34" s="30">
         <v>0.32</v>
       </c>
-      <c r="AT34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU34">
+      <c r="AT34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU34" s="30">
         <v>0.35</v>
       </c>
-      <c r="AV34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW34">
+      <c r="AV34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW34" s="30">
         <v>0.38</v>
       </c>
-      <c r="AX34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY34">
+      <c r="AX34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY34" s="30">
         <v>0.31</v>
       </c>
-      <c r="AZ34" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA34">
+      <c r="AZ34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA34" s="31">
         <v>0.69</v>
       </c>
       <c r="BB34" t="s">
@@ -9653,7 +9819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:81">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -9711,106 +9877,106 @@
       <c r="S35">
         <v>0.04</v>
       </c>
-      <c r="T35" t="s">
-        <v>17</v>
-      </c>
-      <c r="U35">
+      <c r="T35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U35" s="30">
         <v>0.08</v>
       </c>
-      <c r="V35" t="s">
-        <v>17</v>
-      </c>
-      <c r="W35">
+      <c r="V35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="W35" s="30">
         <v>0.1</v>
       </c>
-      <c r="X35" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y35">
+      <c r="X35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y35" s="30">
         <v>0.03</v>
       </c>
-      <c r="Z35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA35">
+      <c r="Z35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA35" s="30">
         <v>0.11</v>
       </c>
-      <c r="AB35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC35">
+      <c r="AB35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC35" s="30">
         <v>0.18</v>
       </c>
-      <c r="AD35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE35">
+      <c r="AD35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE35" s="30">
         <v>0.3</v>
       </c>
-      <c r="AF35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG35">
+      <c r="AF35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG35" s="30">
         <v>0.1</v>
       </c>
-      <c r="AH35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI35">
+      <c r="AH35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI35" s="30">
         <v>0.39</v>
       </c>
-      <c r="AJ35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK35">
+      <c r="AJ35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK35" s="30">
         <v>0.31</v>
       </c>
-      <c r="AL35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM35">
+      <c r="AL35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM35" s="30">
         <v>0.25</v>
       </c>
-      <c r="AN35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO35">
+      <c r="AN35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO35" s="30">
         <v>0.21</v>
       </c>
-      <c r="AP35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ35">
+      <c r="AP35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ35" s="30">
         <v>0.06</v>
       </c>
-      <c r="AR35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS35">
+      <c r="AR35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS35" s="30">
         <v>0.32</v>
       </c>
-      <c r="AT35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU35">
+      <c r="AT35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU35" s="30">
         <v>0.35</v>
       </c>
-      <c r="AV35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW35">
+      <c r="AV35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW35" s="30">
         <v>0.38</v>
       </c>
-      <c r="AX35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY35">
+      <c r="AX35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY35" s="30">
         <v>0.31</v>
       </c>
-      <c r="AZ35" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA35">
+      <c r="AZ35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA35" s="31">
         <v>0.69</v>
       </c>
       <c r="BB35" t="s">
@@ -9898,7 +10064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:81">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -9956,106 +10122,106 @@
       <c r="S36" t="s">
         <v>19</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U36" t="s">
+      <c r="U36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="V36" t="s">
+      <c r="V36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="X36" t="s">
+      <c r="X36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Z36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AA36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AB36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AC36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AD36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AE36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AF36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AG36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AH36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AI36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AJ36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AK36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AL36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AM36" t="s">
+      <c r="AM36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AN36" t="s">
+      <c r="AN36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO36" t="s">
+      <c r="AO36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AP36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AQ36" t="s">
+      <c r="AQ36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AR36" t="s">
+      <c r="AR36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AS36" t="s">
+      <c r="AS36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AT36" t="s">
+      <c r="AT36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AU36" t="s">
+      <c r="AU36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AV36" t="s">
+      <c r="AV36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW36" t="s">
+      <c r="AW36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AX36" t="s">
+      <c r="AX36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AY36" t="s">
+      <c r="AY36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AZ36" t="s">
+      <c r="AZ36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BA36" s="35" t="s">
         <v>19</v>
       </c>
       <c r="BB36" t="s">
@@ -10143,7 +10309,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:81">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>124</v>
       </c>
@@ -10382,7 +10548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:81">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -10624,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:81">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>124</v>
       </c>
@@ -10863,7 +11029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:81">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -11105,7 +11271,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:81">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -11347,7 +11513,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:81">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -11589,7 +11755,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:81">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -11830,6 +11996,23 @@
       <c r="CC45">
         <v>0.54100000000000004</v>
       </c>
+    </row>
+    <row r="49" spans="19:23" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="S49" s="37"/>
+      <c r="T49" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+    </row>
+    <row r="50" spans="19:23" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="T50" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -11838,14 +12021,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -11870,7 +12053,7 @@
     <col min="24" max="24" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G3" s="4" t="s">
         <v>54</v>
       </c>
@@ -11879,8 +12062,11 @@
         <v>54</v>
       </c>
       <c r="T3" s="14"/>
+      <c r="W3" s="11" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1">
+    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
@@ -11927,13 +12113,13 @@
         <v>13</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -11967,8 +12153,20 @@
       <c r="R5" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -12000,7 +12198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -12040,8 +12238,20 @@
       <c r="R7" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="X7" s="11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -12073,7 +12283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -12110,8 +12320,20 @@
       <c r="R9" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -12143,7 +12365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -12177,8 +12399,11 @@
       <c r="R11" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S11" s="11" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -12210,7 +12435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -12244,8 +12469,11 @@
       <c r="R13" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S13" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -12277,7 +12505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -12320,8 +12548,14 @@
       <c r="R15" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15" s="11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -12353,7 +12587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -12393,8 +12627,20 @@
       <c r="R17" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="X17" s="11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -12426,7 +12672,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -12460,8 +12706,11 @@
       <c r="R19" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S19" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -12493,7 +12742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -12530,8 +12779,11 @@
       <c r="R21" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S21" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -12563,7 +12815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -12597,8 +12849,11 @@
       <c r="R23" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S23" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -12630,7 +12885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -12664,8 +12919,11 @@
       <c r="R25" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S25" s="11" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -12697,7 +12955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>23</v>
       </c>
@@ -12724,26 +12982,28 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="P27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R27" s="18" t="s">
+      <c r="Q27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
+      <c r="S27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" s="17"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
@@ -12768,26 +13028,26 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="O28" s="17" t="s">
+      <c r="O28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R28" s="18" t="s">
+      <c r="Q28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -12818,26 +13078,28 @@
       <c r="L29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="17" t="s">
+      <c r="O29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R29" s="18" t="s">
+      <c r="Q29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
+      <c r="S29" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>24</v>
       </c>
@@ -12862,26 +13124,26 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="O30" s="17" t="s">
+      <c r="O30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q30" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R30" s="18" t="s">
+      <c r="Q30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>25</v>
       </c>
@@ -12912,26 +13174,28 @@
       <c r="L31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R31" s="18" t="s">
+      <c r="Q31" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
+      <c r="S31" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>25</v>
       </c>
@@ -12956,26 +13220,26 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R32" s="18" t="s">
+      <c r="Q32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>26</v>
       </c>
@@ -13002,26 +13266,28 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P33" s="18" t="s">
+      <c r="P33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R33" s="18" t="s">
+      <c r="Q33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
+      <c r="S33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>26</v>
       </c>
@@ -13046,26 +13312,26 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P34" s="18" t="s">
+      <c r="P34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R34" s="18" t="s">
+      <c r="Q34" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -13108,8 +13374,11 @@
       <c r="R35" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S35" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
@@ -13141,7 +13410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
@@ -13175,8 +13444,11 @@
       <c r="R37" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S37" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -13208,7 +13480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>29</v>
       </c>
@@ -13239,26 +13511,28 @@
       <c r="L39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O39" s="17" t="s">
+      <c r="O39" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P39" s="18" t="s">
+      <c r="P39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q39" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R39" s="18" t="s">
+      <c r="Q39" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R39" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
+      <c r="S39" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="T39" s="17"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>29</v>
       </c>
@@ -13283,26 +13557,26 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="O40" s="17" t="s">
+      <c r="O40" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P40" s="18" t="s">
+      <c r="P40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R40" s="18" t="s">
+      <c r="Q40" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R40" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>30</v>
       </c>
@@ -13339,8 +13613,11 @@
       <c r="R41" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S41" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -13372,7 +13649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
@@ -13409,8 +13686,11 @@
       <c r="R43" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S43" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
@@ -13442,7 +13722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>32</v>
       </c>
@@ -13476,8 +13756,11 @@
       <c r="R45" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S45" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>32</v>
       </c>
@@ -13509,7 +13792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>33</v>
       </c>
@@ -13543,8 +13826,11 @@
       <c r="R47" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S47" s="11" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>33</v>
       </c>
@@ -13576,7 +13862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>34</v>
       </c>
@@ -13610,8 +13896,11 @@
       <c r="R49" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S49" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>34</v>
       </c>
@@ -13643,7 +13932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>35</v>
       </c>
@@ -13677,8 +13966,11 @@
       <c r="R51" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S51" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>35</v>
       </c>
@@ -13710,7 +14002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>36</v>
       </c>
@@ -13747,8 +14039,11 @@
       <c r="R53" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S53" s="11" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>36</v>
       </c>
@@ -13780,7 +14075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
@@ -13820,8 +14115,11 @@
       <c r="R55" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="S55" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>20</v>
       </c>
@@ -13853,7 +14151,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
@@ -13890,8 +14188,11 @@
       <c r="R57" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="S57" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>23</v>
       </c>
@@ -13923,7 +14224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>25</v>
       </c>
@@ -13966,8 +14267,11 @@
       <c r="R59" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="S59" s="11" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>25</v>
       </c>
@@ -13999,7 +14303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>29</v>
       </c>
@@ -14042,8 +14346,11 @@
       <c r="R61" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="S61" s="11" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>29</v>
       </c>
@@ -14075,7 +14382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
@@ -14115,8 +14422,11 @@
       <c r="R63" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="S63" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>24</v>
       </c>
@@ -14148,7 +14458,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>26</v>
       </c>
@@ -14182,23 +14492,25 @@
       <c r="O65" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P65" s="20" t="s">
+      <c r="P65" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q65" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R65" s="20" t="s">
+      <c r="Q65" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R65" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20"/>
-      <c r="X65" s="20"/>
+      <c r="S65" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T65" s="18"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
@@ -14226,23 +14538,23 @@
       <c r="O66" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P66" s="20" t="s">
+      <c r="P66" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q66" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R66" s="20" t="s">
+      <c r="Q66" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R66" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>36</v>
       </c>
@@ -14271,26 +14583,28 @@
         <v>2</v>
       </c>
       <c r="L67" s="7"/>
-      <c r="O67" s="17" t="s">
+      <c r="O67" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P67" s="18" t="s">
+      <c r="P67" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q67" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R67" s="18" t="s">
+      <c r="Q67" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R67" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
+      <c r="S67" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="T67" s="19"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>36</v>
       </c>
@@ -14315,26 +14629,26 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
-      <c r="O68" s="17" t="s">
+      <c r="O68" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P68" s="18" t="s">
+      <c r="P68" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q68" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R68" s="18" t="s">
+      <c r="Q68" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R68" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>57</v>
       </c>
@@ -14371,8 +14685,11 @@
       <c r="R69" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="S69" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>57</v>
       </c>
@@ -14404,7 +14721,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>6</v>
       </c>
@@ -14441,8 +14758,11 @@
       <c r="R71" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="S71" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>6</v>
       </c>
@@ -14474,7 +14794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>39</v>
       </c>
@@ -14517,8 +14837,11 @@
       <c r="R73" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="S73" s="11" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>39</v>
       </c>
@@ -14550,7 +14873,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>40</v>
       </c>
@@ -14581,26 +14904,28 @@
       <c r="L75" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O75" s="17" t="s">
+      <c r="O75" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P75" s="19" t="s">
+      <c r="P75" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="Q75" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R75" s="18" t="s">
+      <c r="Q75" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R75" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
+      <c r="S75" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="16"/>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>40</v>
       </c>
@@ -14621,26 +14946,26 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="O76" s="17" t="s">
+      <c r="O76" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P76" s="19" t="s">
+      <c r="P76" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="Q76" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R76" s="18" t="s">
+      <c r="Q76" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R76" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>41</v>
       </c>
@@ -14683,8 +15008,11 @@
       <c r="R77" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="S77" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>41</v>
       </c>
@@ -14716,7 +15044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>42</v>
       </c>
@@ -14751,26 +15079,28 @@
       <c r="L79" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O79" s="17" t="s">
+      <c r="O79" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P79" s="18" t="s">
+      <c r="P79" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q79" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R79" s="18" t="s">
+      <c r="Q79" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R79" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
+      <c r="S79" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="16"/>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>42</v>
       </c>
@@ -14795,26 +15125,26 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="O80" s="17" t="s">
+      <c r="O80" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P80" s="18" t="s">
+      <c r="P80" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q80" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R80" s="18" t="s">
+      <c r="Q80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R80" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>43</v>
       </c>
@@ -14854,8 +15184,11 @@
       <c r="R81" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="S81" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>43</v>
       </c>
@@ -14887,7 +15220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>6</v>
       </c>
@@ -14920,20 +15253,20 @@
       <c r="L83" s="10">
         <v>2</v>
       </c>
-      <c r="O83" s="14" t="s">
+      <c r="O83" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P83" s="11" t="s">
+      <c r="P83" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q83" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R83" s="11" t="s">
+      <c r="Q83" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R83" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>6</v>
       </c>
@@ -14958,20 +15291,20 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="O84" s="14" t="s">
+      <c r="O84" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q84" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R84" s="11" t="s">
+      <c r="Q84" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R84" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>39</v>
       </c>
@@ -15006,20 +15339,20 @@
       <c r="L85" s="10">
         <v>2</v>
       </c>
-      <c r="O85" s="14" t="s">
+      <c r="O85" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P85" s="11" t="s">
+      <c r="P85" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q85" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R85" s="11" t="s">
+      <c r="Q85" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R85" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>39</v>
       </c>
@@ -15044,20 +15377,20 @@
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
-      <c r="O86" s="14" t="s">
+      <c r="O86" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P86" s="11" t="s">
+      <c r="P86" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q86" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R86" s="11" t="s">
+      <c r="Q86" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R86" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>40</v>
       </c>
@@ -15092,20 +15425,20 @@
       <c r="L87" s="11">
         <v>2</v>
       </c>
-      <c r="O87" s="14" t="s">
+      <c r="O87" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P87" s="11" t="s">
+      <c r="P87" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q87" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R87" s="11" t="s">
+      <c r="Q87" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R87" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>40</v>
       </c>
@@ -15130,20 +15463,20 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
-      <c r="O88" s="14" t="s">
+      <c r="O88" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P88" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q88" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R88" s="11" t="s">
+      <c r="Q88" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R88" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>41</v>
       </c>
@@ -15176,20 +15509,20 @@
       <c r="L89" s="10">
         <v>2</v>
       </c>
-      <c r="O89" s="14" t="s">
+      <c r="O89" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P89" s="11" t="s">
+      <c r="P89" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q89" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R89" s="11" t="s">
+      <c r="Q89" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R89" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>41</v>
       </c>
@@ -15214,20 +15547,20 @@
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
-      <c r="O90" s="14" t="s">
+      <c r="O90" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q90" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R90" s="11" t="s">
+      <c r="Q90" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R90" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>42</v>
       </c>
@@ -15261,20 +15594,20 @@
       <c r="L91">
         <v>2</v>
       </c>
-      <c r="O91" s="14" t="s">
+      <c r="O91" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="P91" s="11" t="s">
+      <c r="P91" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q91" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R91" s="11" t="s">
+      <c r="Q91" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R91" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>42</v>
       </c>
@@ -15293,20 +15626,20 @@
       <c r="F92" t="s">
         <v>53</v>
       </c>
-      <c r="O92" s="14" t="s">
+      <c r="O92" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="P92" s="11" t="s">
+      <c r="P92" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q92" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R92" s="11" t="s">
+      <c r="Q92" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R92" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>43</v>
       </c>
@@ -15339,20 +15672,20 @@
       <c r="L93" s="10">
         <v>2</v>
       </c>
-      <c r="O93" s="14" t="s">
+      <c r="O93" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="P93" s="11" t="s">
+      <c r="P93" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q93" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R93" s="11" t="s">
+      <c r="Q93" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R93" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>43</v>
       </c>
@@ -15377,30 +15710,30 @@
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
-      <c r="O94" s="14" t="s">
+      <c r="O94" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="P94" s="11" t="s">
+      <c r="P94" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q94" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R94" s="11" t="s">
+      <c r="Q94" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R94" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="35.25">
-      <c r="A98" s="15" t="s">
+    <row r="98" spans="1:20" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="A98" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
       <c r="Q98" s="22"/>
@@ -15408,16 +15741,16 @@
       <c r="S98" s="22"/>
       <c r="T98" s="22"/>
     </row>
-    <row r="100" spans="1:20" ht="45.75">
-      <c r="A100" s="16" t="s">
+    <row r="100" spans="1:20" ht="45.75" x14ac:dyDescent="0.65">
+      <c r="A100" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
       <c r="O100" s="23"/>
       <c r="P100" s="23"/>
       <c r="Q100" s="23"/>
@@ -15432,20 +15765,21 @@
     <mergeCell ref="O100:S100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -15651,7 +15985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15854,7 +16188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16063,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16272,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16481,7 +16815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>

--- a/Results/ANOVATables/SummaryAnalysis.xlsx
+++ b/Results/ANOVATables/SummaryAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7170" windowWidth="28830" windowHeight="7095"/>
+    <workbookView xWindow="-15" yWindow="7230" windowWidth="28830" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="FpR2_Fety_bnGLMM" sheetId="1" r:id="rId1"/>
@@ -1489,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15478,7 +15478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X130"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A131" workbookViewId="0">
       <selection activeCell="O103" sqref="O103:O110"/>
     </sheetView>
   </sheetViews>
